--- a/params.xlsx
+++ b/params.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="twospecies" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -639,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="AI85" sqref="AI85"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0"/>
@@ -15062,4 +15063,52 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F22:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="22" spans="6:14">
+      <c r="N22">
+        <f>1/SQRT(2 * SQRT(3))</f>
+        <v>0.537284965911771</v>
+      </c>
+    </row>
+    <row r="23" spans="6:14">
+      <c r="N23">
+        <f>1/SQRT(2*PI())</f>
+        <v>0.3989422804014327</v>
+      </c>
+    </row>
+    <row r="24" spans="6:14">
+      <c r="F24">
+        <f>7/2/SQRT(12)</f>
+        <v>1.0103629710818451</v>
+      </c>
+      <c r="N24">
+        <f>7/SQRT(48)</f>
+        <v>1.0103629710818451</v>
+      </c>
+    </row>
+    <row r="25" spans="6:14">
+      <c r="F25">
+        <f>1/SQRT(2*SQRT(3))</f>
+        <v>0.537284965911771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>